--- a/downloads/Entresto Value-Based Measures.xlsx
+++ b/downloads/Entresto Value-Based Measures.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="500" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Dropdown list" sheetId="4" state="hidden" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="308">
   <si>
     <t>Triple Aim</t>
   </si>
@@ -1005,10 +1005,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>Cateagory</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>Metrics</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1058,6 +1054,12 @@
   </si>
   <si>
     <t>12 months after completing 8 weeks of Entresto treatment</t>
+  </si>
+  <si>
+    <t>CMS HCC risk adjustment</t>
+  </si>
+  <si>
+    <t>change%</t>
   </si>
 </sst>
 </file>
@@ -1735,7 +1737,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2144,6 +2146,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -6545,8 +6553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6564,25 +6572,25 @@
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="109" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B2" s="108"/>
     </row>
     <row r="3" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="109" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B3" s="109"/>
     </row>
     <row r="4" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="109" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B4" s="109"/>
     </row>
     <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="109" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B5" s="109"/>
     </row>
@@ -6892,8 +6900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH213"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:D17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7080,80 +7088,80 @@
       <c r="F14" s="128"/>
       <c r="G14" s="128"/>
       <c r="H14" s="128"/>
-      <c r="I14" s="67" t="s">
-        <v>194</v>
+      <c r="I14" s="153" t="s">
+        <v>307</v>
       </c>
       <c r="J14" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="K14" s="65" t="s">
-        <v>194</v>
+      <c r="K14" s="154" t="s">
+        <v>307</v>
       </c>
       <c r="L14" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="M14" s="65" t="s">
-        <v>194</v>
+      <c r="M14" s="154" t="s">
+        <v>307</v>
       </c>
       <c r="N14" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="O14" s="65" t="s">
-        <v>194</v>
+      <c r="O14" s="154" t="s">
+        <v>307</v>
       </c>
       <c r="P14" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="Q14" s="65" t="s">
-        <v>194</v>
+      <c r="Q14" s="154" t="s">
+        <v>307</v>
       </c>
       <c r="R14" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="S14" s="65" t="s">
-        <v>194</v>
+      <c r="S14" s="154" t="s">
+        <v>307</v>
       </c>
       <c r="T14" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="U14" s="65" t="s">
-        <v>194</v>
+      <c r="U14" s="154" t="s">
+        <v>307</v>
       </c>
       <c r="V14" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="W14" s="65" t="s">
-        <v>194</v>
+      <c r="W14" s="154" t="s">
+        <v>307</v>
       </c>
       <c r="X14" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="Y14" s="65" t="s">
-        <v>194</v>
+      <c r="Y14" s="154" t="s">
+        <v>307</v>
       </c>
       <c r="Z14" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AA14" s="65" t="s">
-        <v>194</v>
+      <c r="AA14" s="154" t="s">
+        <v>307</v>
       </c>
       <c r="AB14" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AC14" s="65" t="s">
-        <v>194</v>
+      <c r="AC14" s="154" t="s">
+        <v>307</v>
       </c>
       <c r="AD14" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AE14" s="65" t="s">
-        <v>194</v>
+      <c r="AE14" s="154" t="s">
+        <v>307</v>
       </c>
       <c r="AF14" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="AG14" s="65" t="s">
-        <v>194</v>
+      <c r="AG14" s="154" t="s">
+        <v>307</v>
       </c>
       <c r="AH14" s="66" t="s">
         <v>113</v>
@@ -7208,7 +7216,7 @@
         <v>286</v>
       </c>
       <c r="B16" s="132" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C16" s="133"/>
       <c r="D16" s="134"/>
@@ -7257,7 +7265,7 @@
         <v>287</v>
       </c>
       <c r="B17" s="132" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C17" s="133"/>
       <c r="D17" s="134"/>
@@ -15973,8 +15981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D337" sqref="D337"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16002,12 +16010,12 @@
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="96" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="96" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.25">
@@ -16033,13 +16041,13 @@
     <row r="11" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="142"/>
       <c r="B11" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="111" t="s">
         <v>292</v>
       </c>
-      <c r="C11" s="111" t="s">
+      <c r="D11" s="112" t="s">
         <v>293</v>
-      </c>
-      <c r="D11" s="112" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -16083,7 +16091,7 @@
         <v>146</v>
       </c>
       <c r="D15" s="98" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="19" x14ac:dyDescent="0.25">
@@ -16100,20 +16108,20 @@
     </row>
     <row r="18" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="110" t="s">
+        <v>304</v>
+      </c>
+      <c r="B18" s="138" t="s">
         <v>305</v>
-      </c>
-      <c r="B18" s="138" t="s">
-        <v>306</v>
       </c>
       <c r="C18" s="139"/>
       <c r="D18" s="140"/>
     </row>
     <row r="20" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="110" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B20" s="138" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="C20" s="139"/>
       <c r="D20" s="140"/>
